--- a/miscellaneous/2024_NIOZ_UvA_Plankton_ABIO_coupling.xlsx
+++ b/miscellaneous/2024_NIOZ_UvA_Plankton_ABIO_coupling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://joinnioz-my.sharepoint.com/personal/louis_peperzak_nioz_nl/Documents/Projects present/2024 UvA Plankton-ABIO coupling/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ardjano Mark\OneDrive - UvA\Jaar 2\Tweedejaarsproject\2eJaarsKIProject2024\miscellaneous\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="419" documentId="8_{21BD29C8-2B7B-48C5-B4E3-2E753C1E2089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B604358-7336-4838-81A4-57B5A2EA3837}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB70922-C608-46B9-A5AC-D6D9D8B134BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="5" activeTab="3" xr2:uid="{AE6EC9E2-7906-4C27-9127-A32E49D2D9F9}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="16996" windowHeight="9976" firstSheet="5" activeTab="5" xr2:uid="{AE6EC9E2-7906-4C27-9127-A32E49D2D9F9}"/>
   </bookViews>
   <sheets>
     <sheet name="log" sheetId="1" r:id="rId1"/>
@@ -1413,7 +1413,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0E+00"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1774,10 +1774,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{908D42CE-C39E-4F83-AE47-9E27B12980DC}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{D658E9B2-99F5-4449-AB9F-A7F50194F493}"/>
     <cellStyle name="Normal 4" xfId="3" xr:uid="{E90B4B0D-E36F-43B0-8DE0-5FC4DFC03F5A}"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -2249,22 +2249,22 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.42578125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="101.28515625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="47.453125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="101.26953125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="39.453125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="32.7265625" style="9" customWidth="1"/>
     <col min="6" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15">
+    <row r="3" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="45" t="s">
         <v>1</v>
       </c>
@@ -2282,17 +2282,17 @@
       <c r="K3" s="46"/>
       <c r="L3" s="48"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="49"/>
       <c r="L4" s="50"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="49" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="50"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="49" t="s">
         <v>4</v>
       </c>
@@ -2301,12 +2301,12 @@
       </c>
       <c r="L6" s="50"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="49"/>
       <c r="D7" s="51"/>
       <c r="L7" s="50"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
@@ -2322,7 +2322,7 @@
       <c r="H8"/>
       <c r="L8" s="50"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>9</v>
       </c>
@@ -2335,7 +2335,7 @@
       <c r="H9"/>
       <c r="L9" s="50"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -2348,7 +2348,7 @@
       <c r="H10"/>
       <c r="L10" s="50"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -2361,7 +2361,7 @@
       <c r="H11"/>
       <c r="L11" s="50"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -2374,12 +2374,12 @@
       <c r="H12"/>
       <c r="L12" s="50"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="49"/>
       <c r="D13" s="51"/>
       <c r="L13" s="50"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="52"/>
       <c r="B14" s="53"/>
       <c r="C14" s="53"/>
@@ -2393,7 +2393,7 @@
       <c r="K14" s="53"/>
       <c r="L14" s="54"/>
     </row>
-    <row r="16" spans="1:12" ht="15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>17</v>
       </c>
@@ -2410,10 +2410,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="15">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E17" s="55"/>
     </row>
-    <row r="18" spans="3:5" ht="15">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C18" s="9" t="s">
         <v>22</v>
       </c>
@@ -2424,15 +2424,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="15">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E19" s="55" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="15">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E20" s="55"/>
     </row>
-    <row r="21" spans="3:5" ht="15">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C21" s="9" t="s">
         <v>26</v>
       </c>
@@ -2443,12 +2443,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="15">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E22" s="55" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="3:5" ht="15">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C24" s="9" t="s">
         <v>30</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="15">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E25" s="55" t="s">
         <v>33</v>
       </c>
@@ -2482,7 +2482,7 @@
       <selection activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2497,32 +2497,32 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="78.85546875" customWidth="1"/>
+    <col min="1" max="1" width="78.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="30" customHeight="1">
+    <row r="1" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="62" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="60" customFormat="1" ht="124.5" customHeight="1">
+    <row r="2" spans="1:1" s="60" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="61" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="199.5">
+    <row r="3" spans="1:1" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A3" s="60" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="57">
+    <row r="6" spans="1:1" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="60" t="s">
         <v>38</v>
       </c>
@@ -2536,16 +2536,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD94CA3A-ADCB-407D-97B7-5584920F1078}">
   <dimension ref="B5:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="17" max="17" width="12.85546875" customWidth="1"/>
+    <col min="17" max="17" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:11" ht="15">
+    <row r="5" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C5" s="56" t="s">
         <v>39</v>
       </c>
@@ -2562,11 +2562,11 @@
       <c r="J5" s="7"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="3:11">
+    <row r="6" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C6" s="5"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="3:11">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C7" s="5" t="s">
         <v>24</v>
       </c>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="3:11">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C8" s="5" t="s">
         <v>28</v>
       </c>
@@ -2590,14 +2590,14 @@
       </c>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="3:11">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C9" s="5"/>
       <c r="G9" t="s">
         <v>45</v>
       </c>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="3:11">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C10" s="3"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2608,7 +2608,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="12" spans="3:11">
+    <row r="12" spans="3:11" x14ac:dyDescent="0.35">
       <c r="D12" s="8"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -2617,7 +2617,7 @@
       <c r="I12" s="7"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="3:11" ht="18">
+    <row r="13" spans="3:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="D13" s="5"/>
       <c r="F13" s="67" t="s">
         <v>46</v>
@@ -2626,28 +2626,28 @@
       <c r="H13" s="58"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="3:11">
+    <row r="14" spans="3:11" x14ac:dyDescent="0.35">
       <c r="D14" s="5"/>
       <c r="F14" t="s">
         <v>47</v>
       </c>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="3:11">
+    <row r="15" spans="3:11" x14ac:dyDescent="0.35">
       <c r="D15" s="5"/>
       <c r="F15" t="s">
         <v>48</v>
       </c>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="3:11">
+    <row r="16" spans="3:11" x14ac:dyDescent="0.35">
       <c r="D16" s="5"/>
       <c r="F16" t="s">
         <v>49</v>
       </c>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="2:17">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
       <c r="D17" s="3"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -2656,7 +2656,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="19" spans="2:17">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B19" s="8"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -2670,7 +2670,7 @@
       <c r="L19" s="7"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="2:17" ht="15">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B20" s="5"/>
       <c r="C20" s="57" t="s">
         <v>50</v>
@@ -2680,18 +2680,18 @@
       </c>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="2:17">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B21" s="5"/>
       <c r="H21" t="s">
         <v>52</v>
       </c>
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="2:17">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B22" s="5"/>
       <c r="M22" s="4"/>
     </row>
-    <row r="23" spans="2:17" ht="15">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B23" s="5"/>
       <c r="C23" s="57" t="s">
         <v>53</v>
@@ -2701,25 +2701,25 @@
       </c>
       <c r="M23" s="4"/>
     </row>
-    <row r="24" spans="2:17">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B24" s="5"/>
       <c r="H24" t="s">
         <v>52</v>
       </c>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="2:17">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B25" s="5"/>
       <c r="M25" s="4"/>
     </row>
-    <row r="26" spans="2:17" ht="15">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B26" s="5"/>
       <c r="C26" s="57" t="s">
         <v>54</v>
       </c>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="2:17">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B27" s="3"/>
       <c r="C27" s="2" t="s">
         <v>55</v>
@@ -2735,7 +2735,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="29" spans="2:17" ht="15">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B29" s="56" t="s">
         <v>56</v>
       </c>
@@ -2755,7 +2755,7 @@
       <c r="P29" s="7"/>
       <c r="Q29" s="6"/>
     </row>
-    <row r="30" spans="2:17">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B30" s="5">
         <v>1</v>
       </c>
@@ -2764,7 +2764,7 @@
       </c>
       <c r="Q30" s="4"/>
     </row>
-    <row r="31" spans="2:17">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B31" s="5">
         <v>2</v>
       </c>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="Q31" s="4"/>
     </row>
-    <row r="32" spans="2:17">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B32" s="5">
         <v>3</v>
       </c>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="Q32" s="4"/>
     </row>
-    <row r="33" spans="2:17">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B33" s="5">
         <v>4</v>
       </c>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="Q33" s="4"/>
     </row>
-    <row r="34" spans="2:17">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B34" s="5">
         <v>5</v>
       </c>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="Q34" s="4"/>
     </row>
-    <row r="35" spans="2:17">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B35" s="5">
         <v>6</v>
       </c>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="Q35" s="4"/>
     </row>
-    <row r="36" spans="2:17">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B36" s="5">
         <v>7</v>
       </c>
@@ -2818,7 +2818,7 @@
       </c>
       <c r="Q36" s="4"/>
     </row>
-    <row r="37" spans="2:17">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B37" s="5">
         <v>8</v>
       </c>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="Q37" s="4"/>
     </row>
-    <row r="38" spans="2:17">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B38" s="3"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -2861,9 +2861,9 @@
       <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="12:12">
+    <row r="1" spans="12:12" x14ac:dyDescent="0.35">
       <c r="L1" s="44" t="s">
         <v>65</v>
       </c>
@@ -2881,31 +2881,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92DDC4D-59BE-4407-A678-DE2AD741376F}">
   <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7265625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="25.26953125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" style="9" customWidth="1"/>
     <col min="4" max="4" width="9" style="9"/>
-    <col min="5" max="5" width="16.5703125" style="9" customWidth="1"/>
-    <col min="6" max="7" width="17.42578125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" style="9" customWidth="1"/>
+    <col min="6" max="7" width="17.453125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="16.6328125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="9" style="9"/>
-    <col min="12" max="13" width="18.7109375" style="9" customWidth="1"/>
+    <col min="12" max="13" width="18.7265625" style="9" customWidth="1"/>
     <col min="14" max="14" width="9" style="9"/>
-    <col min="15" max="15" width="15.140625" style="9" customWidth="1"/>
+    <col min="15" max="15" width="15.1796875" style="9" customWidth="1"/>
     <col min="16" max="16" width="11" style="9" customWidth="1"/>
     <col min="17" max="24" width="9" style="9"/>
     <col min="25" max="25" width="107" style="9" customWidth="1"/>
     <col min="26" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>66</v>
       </c>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="Y1" s="17"/>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -2959,7 +2959,7 @@
       <c r="X2" s="17"/>
       <c r="Y2" s="17"/>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>70</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>91</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>103</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>111</v>
       </c>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="Y6" s="10"/>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>122</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>132</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="13.5" customHeight="1">
+    <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>141</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>150</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>158</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>100</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>138</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>185</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>193</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>201</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>209</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
         <v>218</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>226</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>199</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>173</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>249</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>120</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>246</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>274</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
         <v>191</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>155</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>215</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>147</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
         <v>182</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="L31" s="10" t="s">
         <v>323</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="L32" s="10" t="s">
         <v>323</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="33" spans="12:25">
+    <row r="33" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L33" s="10" t="s">
         <v>323</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="34" spans="12:25">
+    <row r="34" spans="12:25" x14ac:dyDescent="0.3">
       <c r="L34" s="10" t="s">
         <v>323</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="35" spans="12:25">
+    <row r="35" spans="12:25" x14ac:dyDescent="0.3">
       <c r="X35" s="35" t="s">
         <v>88</v>
       </c>
@@ -4939,14 +4939,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBABFFD1-53C2-4405-8717-A6E82778F3E8}">
   <dimension ref="A1:Q86"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A49" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>333</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>335</v>
       </c>
@@ -4984,7 +4984,7 @@
       <c r="P3" s="7"/>
       <c r="Q3" s="6"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>341</v>
       </c>
@@ -5006,7 +5006,7 @@
       </c>
       <c r="Q4" s="4"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>343</v>
       </c>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="Q5" s="4"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>345</v>
       </c>
@@ -5050,7 +5050,7 @@
       </c>
       <c r="Q6" s="4"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>347</v>
       </c>
@@ -5073,7 +5073,7 @@
       </c>
       <c r="Q7" s="4"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>349</v>
       </c>
@@ -5095,7 +5095,7 @@
       </c>
       <c r="Q8" s="4"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>351</v>
       </c>
@@ -5117,7 +5117,7 @@
       </c>
       <c r="Q9" s="4"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>353</v>
       </c>
@@ -5140,7 +5140,7 @@
       </c>
       <c r="Q10" s="4"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>355</v>
       </c>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="Q11" s="4"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>357</v>
       </c>
@@ -5193,7 +5193,7 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>359</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>1.9176557863501484</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>360</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>2.6086956521739131</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>361</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>1.4712041884816753</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>362</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>2.3105076741440378</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>363</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>1.6360424028268552</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>364</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>1.0706051873198847</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>365</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>1.8947368421052631</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>366</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>2.1116504854368934</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>367</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>4.3505976095617527</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
         <v>368</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>7.8864353312302835E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>369</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>1.4669603524229076</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>370</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>2.459016393442623</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>371</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>0.69587628865979378</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
         <v>372</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>5.2093023255813957</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>373</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>0.45594713656387664</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
         <v>374</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>2.510344827586207</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>375</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>1.5934065934065933</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>376</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>2.404833836858006</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
         <v>377</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>1.0645756457564575</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
         <v>378</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>379</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>0.29729729729729731</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
         <v>380</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>1.753441802252816</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>381</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>3.967123287671233</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
         <v>382</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>1.4372367312552654</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>383</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>5.2091954022988505</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="15" t="s">
         <v>384</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>14.389830508474576</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="14" t="s">
         <v>385</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>1.7480371163454675</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
         <v>386</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>1.8030913978494623</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
         <v>387</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>1.9396741523557903</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
         <v>388</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>3.3602941176470589</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="s">
         <v>389</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>1.2096774193548387</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
         <v>390</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>1.7929359823399558</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
         <v>391</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>1.3568840579710144</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
         <v>392</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>3.0351906158357771</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
         <v>393</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
         <v>394</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>2.2522255192878338</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="s">
         <v>395</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>0.76701570680628273</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="s">
         <v>396</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>7.9142857142857146</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
         <v>397</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>1.7018469656992083</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
         <v>398</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>1.9272727272727272</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
         <v>399</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>2.8518197573656847</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
         <v>400</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>1.1951219512195121</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
         <v>401</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>2.0505902192242833</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
         <v>402</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>2.018828451882845</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="14" t="s">
         <v>403</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>1.5502645502645502</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="14" t="s">
         <v>404</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>5.6685358255451712</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="s">
         <v>405</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>4.1538461538461542</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="11" t="s">
         <v>406</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>1.4981684981684982</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="11" t="s">
         <v>407</v>
       </c>
@@ -6077,7 +6077,7 @@
         <v>0.49677419354838709</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="s">
         <v>408</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>1.5784641068447411</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="11" t="s">
         <v>409</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>2.7706422018348622</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="11" t="s">
         <v>410</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="11" t="s">
         <v>411</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>1.812778603268945</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="11" t="s">
         <v>412</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>2.9197860962566846</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="s">
         <v>413</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>1.0841121495327102</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="11" t="s">
         <v>414</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>3.1764705882352939</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="11" t="s">
         <v>415</v>
       </c>
@@ -6221,7 +6221,7 @@
         <v>1.7718120805369129</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="11" t="s">
         <v>416</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>3.5539215686274508</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="11" t="s">
         <v>417</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>3.682634730538922</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="16" t="s">
         <v>418</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>8.8495260663507107</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="11" t="s">
         <v>419</v>
       </c>
@@ -6293,7 +6293,7 @@
         <v>2.9855072463768115</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="11" t="s">
         <v>420</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="11" t="s">
         <v>421</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>1.7450980392156863</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="11" t="s">
         <v>422</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>1.4055600981193785</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="14" t="s">
         <v>423</v>
       </c>
@@ -6365,7 +6365,7 @@
         <v>1.7919528949950931</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="11" t="s">
         <v>424</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>1.1807228915662651</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="11" t="s">
         <v>425</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>4.9473684210526319</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="11" t="s">
         <v>426</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>0.71261682242990654</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="14" t="s">
         <v>427</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="11" t="s">
         <v>428</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>0.16551724137931034</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="11" t="s">
         <v>429</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>0.26785714285714285</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="11" t="s">
         <v>430</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>0.86898395721925137</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="11" t="s">
         <v>431</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>1.0314852840520192</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="14" t="s">
         <v>432</v>
       </c>
